--- a/paper/figs/results.xlsx
+++ b/paper/figs/results.xlsx
@@ -179,11 +179,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2064699624"/>
-        <c:axId val="2103614568"/>
+        <c:axId val="2126920344"/>
+        <c:axId val="2128417064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2064699624"/>
+        <c:axId val="2126920344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -193,7 +193,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103614568"/>
+        <c:crossAx val="2128417064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -201,7 +201,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2103614568"/>
+        <c:axId val="2128417064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -212,7 +212,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2064699624"/>
+        <c:crossAx val="2126920344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -238,16 +238,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -594,7 +594,7 @@
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/paper/figs/results.xlsx
+++ b/paper/figs/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="1340" yWindow="340" windowWidth="25520" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Internal Mode</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>External</t>
+  </si>
+  <si>
+    <t>PipeSize</t>
+  </si>
+  <si>
+    <t>Delay in Seconds</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Typical request size</t>
   </si>
 </sst>
 </file>
@@ -946,11 +958,11 @@
             </a:ln>
           </c:spPr>
         </c:serLines>
-        <c:axId val="2095414200"/>
-        <c:axId val="2095417176"/>
+        <c:axId val="2123902184"/>
+        <c:axId val="2119826936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2095414200"/>
+        <c:axId val="2123902184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -989,7 +1001,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095417176"/>
+        <c:crossAx val="2119826936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -997,7 +1009,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2095417176"/>
+        <c:axId val="2119826936"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1038,7 +1050,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095414200"/>
+        <c:crossAx val="2123902184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1776,11 +1788,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="2095526376"/>
-        <c:axId val="2095529352"/>
+        <c:axId val="2124016232"/>
+        <c:axId val="2124022024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2095526376"/>
+        <c:axId val="2124016232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,7 +1826,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2095529352"/>
+        <c:crossAx val="2124022024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1822,7 +1834,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2095529352"/>
+        <c:axId val="2124022024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1869,7 +1881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095526376"/>
+        <c:crossAx val="2124016232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1911,15 +1923,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1397000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1940,16 +1952,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2293,10 +2305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S37"/>
+  <dimension ref="B2:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3016,6 +3028,20 @@
       <c r="S37">
         <f t="shared" si="5"/>
         <v>0.22010808804005508</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19">
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/paper/figs/results.xlsx
+++ b/paper/figs/results.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="340" windowWidth="25520" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="-20" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
   <si>
     <t>Internal Mode</t>
   </si>
@@ -89,13 +90,229 @@
   </si>
   <si>
     <t>Typical request size</t>
+  </si>
+  <si>
+    <t>Bug Type</t>
+  </si>
+  <si>
+    <t>Bug Desc</t>
+  </si>
+  <si>
+    <t>Tool Used</t>
+  </si>
+  <si>
+    <t>Debug Mechanism</t>
+  </si>
+  <si>
+    <t>Slowdown</t>
+  </si>
+  <si>
+    <t>Nodes Cloned</t>
+  </si>
+  <si>
+    <t>Comments/ Bug Caught</t>
+  </si>
+  <si>
+    <t>Performance Bug</t>
+  </si>
+  <si>
+    <t>#15811</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>iProbe</t>
+  </si>
+  <si>
+    <t>Exec. Trace</t>
+  </si>
+  <si>
+    <t>1.5x</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>#45464</t>
+  </si>
+  <si>
+    <t>Apache</t>
+  </si>
+  <si>
+    <t>1.4x</t>
+  </si>
+  <si>
+    <t>Rho</t>
+  </si>
+  <si>
+    <t>Request Rate(MB/s)</t>
+  </si>
+  <si>
+    <t>Buffer Size(MB)</t>
+  </si>
+  <si>
+    <t>Debug-Window (mins)</t>
+  </si>
+  <si>
+    <t>Overhead</t>
+  </si>
+  <si>
+    <t>Buffer Size</t>
+  </si>
+  <si>
+    <t>#49491</t>
+  </si>
+  <si>
+    <t>1.8x</t>
+  </si>
+  <si>
+    <t>Memory Leak</t>
+  </si>
+  <si>
+    <t>Injected</t>
+  </si>
+  <si>
+    <t>Glassfish</t>
+  </si>
+  <si>
+    <t>VisualVM/ mTrace</t>
+  </si>
+  <si>
+    <t>Memory Profiling</t>
+  </si>
+  <si>
+    <t>3x</t>
+  </si>
+  <si>
+    <t>Valgrind</t>
+  </si>
+  <si>
+    <t>memcheck</t>
+  </si>
+  <si>
+    <t>N.A</t>
+  </si>
+  <si>
+    <t>Yes, with overflows</t>
+  </si>
+  <si>
+    <t>Config. Errors</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>JBOSS</t>
+  </si>
+  <si>
+    <t>DTrace</t>
+  </si>
+  <si>
+    <t>Tracing</t>
+  </si>
+  <si>
+    <t>1.3-4x</t>
+  </si>
+  <si>
+    <t>Max no. of threads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Rate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debug Window </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipe Size </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slow- down </t>
+  </si>
+  <si>
+    <t xml:space="preserve">530 bps, 27 rq/s </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8x </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 sec </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3x </t>
+  </si>
+  <si>
+    <t xml:space="preserve">72 sec </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Poisson, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="CMMI9"/>
+      </rPr>
+      <t xml:space="preserve">λ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="CMR9"/>
+      </rPr>
+      <t xml:space="preserve">= 17 rq/s </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">16 sec </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 sec </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5x </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2x </t>
+  </si>
+  <si>
+    <t xml:space="preserve">376 sec </t>
+  </si>
+  <si>
+    <t>Mu</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>buffer</t>
+  </si>
+  <si>
+    <t>hitting time</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>hit/mins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,6 +343,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="CMBX9"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="CMR9"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="CMMI9"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -135,7 +378,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,8 +386,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -154,20 +423,79 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -958,11 +1286,11 @@
             </a:ln>
           </c:spPr>
         </c:serLines>
-        <c:axId val="2123902184"/>
-        <c:axId val="2119826936"/>
+        <c:axId val="2119811704"/>
+        <c:axId val="2119818600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2123902184"/>
+        <c:axId val="2119811704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,7 +1329,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119826936"/>
+        <c:crossAx val="2119818600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1009,7 +1337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119826936"/>
+        <c:axId val="2119818600"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1050,7 +1378,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123902184"/>
+        <c:crossAx val="2119811704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1788,11 +2116,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="2124016232"/>
-        <c:axId val="2124022024"/>
+        <c:axId val="2119913416"/>
+        <c:axId val="2119919208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2124016232"/>
+        <c:axId val="2119913416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1826,7 +2154,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2124022024"/>
+        <c:crossAx val="2119919208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1834,7 +2162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124022024"/>
+        <c:axId val="2119919208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,7 +2209,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124016232"/>
+        <c:crossAx val="2119913416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1905,6 +2233,796 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10% Overhead</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$E$26:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1126.399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2252.799999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4505.599999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9011.19999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18022.39999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36044.79999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>25% Overhead</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$E$26:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$8:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>50% Overhead</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$E$26:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$14:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>307.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>614.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1228.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2457.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4915.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9830.400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>75% Overhead</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$E$26:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$20:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>238.9333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>477.8666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>955.7333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1911.466666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3822.933333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7645.866666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>100% Overhead</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$E$26:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$26:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>204.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>409.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>819.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1638.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3276.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6553.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2127863432"/>
+        <c:axId val="2127844328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2127863432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2127844328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2127844328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2127863432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10% Overhead</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$53:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$33:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>36044.79999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18022.39999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12014.93333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9011.19999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7208.959999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>25% Overhead</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$53:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$38:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5461.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3276.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>50% Overhead</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$53:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$43:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9830.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4915.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3276.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2457.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1966.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>75% Overhead</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$53:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$48:$F$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7645.866666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3822.933333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2548.622222222222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1911.466666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1529.173333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>100% Overhead</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$53:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$53:$F$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6553.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3276.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2184.533333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1638.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1310.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2118736920"/>
+        <c:axId val="2133129320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2118736920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2133129320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2133129320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2118736920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1966,6 +3084,71 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2307,7 +3490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -3058,13 +4241,3306 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="16" max="16" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="17">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="17">
+      <c r="A4" s="2"/>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="4">
+        <v>2</v>
+      </c>
+      <c r="N4" s="4">
+        <v>30</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2166</v>
+      </c>
+      <c r="P4" s="4">
+        <v>36.1</v>
+      </c>
+      <c r="S4" s="4">
+        <v>12.327994120755699</v>
+      </c>
+      <c r="T4" s="4">
+        <v>3.8999999999999901</v>
+      </c>
+      <c r="U4" s="4">
+        <v>2145</v>
+      </c>
+      <c r="V4" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="17">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="4">
+        <v>2</v>
+      </c>
+      <c r="N5" s="4">
+        <v>34</v>
+      </c>
+      <c r="O5" s="4">
+        <v>2641</v>
+      </c>
+      <c r="P5" s="4">
+        <v>44.016666666666602</v>
+      </c>
+      <c r="S5" s="4">
+        <v>15.798964268755901</v>
+      </c>
+      <c r="T5" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="U5" s="4">
+        <v>2275</v>
+      </c>
+      <c r="V5" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="17">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2</v>
+      </c>
+      <c r="N6" s="4">
+        <v>31</v>
+      </c>
+      <c r="O6" s="4">
+        <v>3201</v>
+      </c>
+      <c r="P6" s="4">
+        <v>53.35</v>
+      </c>
+      <c r="S6" s="4">
+        <v>16.395472597818198</v>
+      </c>
+      <c r="T6" s="4">
+        <v>3.69999999999999</v>
+      </c>
+      <c r="U6" s="4">
+        <v>2656</v>
+      </c>
+      <c r="V6" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="17">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="4">
+        <v>2</v>
+      </c>
+      <c r="N7" s="4">
+        <v>36</v>
+      </c>
+      <c r="O7" s="4">
+        <v>4242</v>
+      </c>
+      <c r="P7" s="4">
+        <v>70.7</v>
+      </c>
+      <c r="S7" s="4">
+        <v>17.1270256410256</v>
+      </c>
+      <c r="T7" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="U7" s="4">
+        <v>2569</v>
+      </c>
+      <c r="V7" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="17">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2</v>
+      </c>
+      <c r="N8" s="4">
+        <v>40</v>
+      </c>
+      <c r="O8" s="4">
+        <v>4619</v>
+      </c>
+      <c r="P8" s="4">
+        <v>76.983333333333306</v>
+      </c>
+      <c r="S8" s="4">
+        <v>17.847627314814801</v>
+      </c>
+      <c r="T8" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="U8" s="4">
+        <v>2570</v>
+      </c>
+      <c r="V8" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="17">
+      <c r="L9" s="4">
+        <v>2</v>
+      </c>
+      <c r="N9" s="4">
+        <v>31</v>
+      </c>
+      <c r="O9" s="4">
+        <v>5994</v>
+      </c>
+      <c r="P9" s="4">
+        <v>99.9</v>
+      </c>
+      <c r="S9" s="4">
+        <v>19.673983358358299</v>
+      </c>
+      <c r="T9" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="U9" s="4">
+        <v>2833</v>
+      </c>
+      <c r="V9" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="17">
+      <c r="L10" s="4">
+        <v>2</v>
+      </c>
+      <c r="N10" s="4">
+        <v>35</v>
+      </c>
+      <c r="O10" s="4">
+        <v>6060</v>
+      </c>
+      <c r="P10" s="4">
+        <v>101</v>
+      </c>
+      <c r="S10" s="4">
+        <v>20.536087127158499</v>
+      </c>
+      <c r="T10" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="U10" s="4">
+        <v>3450</v>
+      </c>
+      <c r="V10" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="17">
+      <c r="L11" s="4">
+        <v>2</v>
+      </c>
+      <c r="N11" s="4">
+        <v>31</v>
+      </c>
+      <c r="O11" s="4">
+        <v>6898</v>
+      </c>
+      <c r="P11" s="4">
+        <v>114.966666666666</v>
+      </c>
+      <c r="S11" s="4">
+        <v>21.477408383413099</v>
+      </c>
+      <c r="T11" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="U11" s="4">
+        <v>3737</v>
+      </c>
+      <c r="V11" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="17">
+      <c r="L12" s="4">
+        <v>2</v>
+      </c>
+      <c r="N12" s="4">
+        <v>38</v>
+      </c>
+      <c r="O12" s="4">
+        <v>7241</v>
+      </c>
+      <c r="P12" s="4">
+        <v>120.683333333333</v>
+      </c>
+      <c r="S12" s="4">
+        <v>21.784373571101899</v>
+      </c>
+      <c r="T12" s="4">
+        <v>3.69999999999999</v>
+      </c>
+      <c r="U12" s="4">
+        <v>3529</v>
+      </c>
+      <c r="V12" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="17">
+      <c r="L13" s="4">
+        <v>2</v>
+      </c>
+      <c r="N13" s="4">
+        <v>33</v>
+      </c>
+      <c r="O13" s="4">
+        <v>7374</v>
+      </c>
+      <c r="P13" s="4">
+        <v>122.9</v>
+      </c>
+      <c r="S13" s="4">
+        <v>23.017649293169502</v>
+      </c>
+      <c r="T13" s="4">
+        <v>3.8999999999999901</v>
+      </c>
+      <c r="U13" s="4">
+        <v>4005</v>
+      </c>
+      <c r="V13" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="17">
+      <c r="A14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="4">
+        <v>2</v>
+      </c>
+      <c r="N14" s="4">
+        <v>35</v>
+      </c>
+      <c r="O14" s="4">
+        <v>7770</v>
+      </c>
+      <c r="P14" s="4">
+        <v>129.5</v>
+      </c>
+      <c r="S14" s="4">
+        <v>23.0511000840159</v>
+      </c>
+      <c r="T14" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="U14" s="4">
+        <v>3181</v>
+      </c>
+      <c r="V14" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="17">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="L15" s="4">
+        <v>3</v>
+      </c>
+      <c r="N15" s="4">
+        <v>35</v>
+      </c>
+      <c r="O15" s="4">
+        <v>2113</v>
+      </c>
+      <c r="P15" s="4">
+        <v>17.6086904761904</v>
+      </c>
+      <c r="S15" s="4">
+        <v>24.045266272189298</v>
+      </c>
+      <c r="T15" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="U15" s="4">
+        <v>3751</v>
+      </c>
+      <c r="V15" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7">
+        <v>4096</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="4">
+        <v>3</v>
+      </c>
+      <c r="N16" s="4">
+        <v>36</v>
+      </c>
+      <c r="O16" s="4">
+        <v>3042</v>
+      </c>
+      <c r="P16" s="4">
+        <v>25.350347222222201</v>
+      </c>
+      <c r="S16" s="4">
+        <v>24.238299319727801</v>
+      </c>
+      <c r="T16" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="U16" s="4">
+        <v>2036</v>
+      </c>
+      <c r="V16" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="17">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="L17" s="4">
+        <v>3</v>
+      </c>
+      <c r="N17" s="4">
+        <v>39</v>
+      </c>
+      <c r="O17" s="4">
+        <v>3274</v>
+      </c>
+      <c r="P17" s="4">
+        <v>27.283653846153801</v>
+      </c>
+      <c r="S17" s="4">
+        <v>24.493129069523199</v>
+      </c>
+      <c r="T17" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="U17" s="4">
+        <v>3380</v>
+      </c>
+      <c r="V17" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4096</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="4">
+        <v>3</v>
+      </c>
+      <c r="N18" s="4">
+        <v>33</v>
+      </c>
+      <c r="O18" s="4">
+        <v>3419</v>
+      </c>
+      <c r="P18" s="4">
+        <v>28.492045454545401</v>
+      </c>
+      <c r="S18" s="4">
+        <v>25.000346565847501</v>
+      </c>
+      <c r="T18" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="U18" s="4">
+        <v>3450</v>
+      </c>
+      <c r="V18" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="17">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="L19" s="4">
+        <v>3</v>
+      </c>
+      <c r="N19" s="4">
+        <v>39</v>
+      </c>
+      <c r="O19" s="4">
+        <v>3516</v>
+      </c>
+      <c r="P19" s="4">
+        <v>29.300320512820502</v>
+      </c>
+      <c r="S19" s="4">
+        <v>25.977419408111999</v>
+      </c>
+      <c r="T19" s="4">
+        <v>3.8999999999999901</v>
+      </c>
+      <c r="U19" s="4">
+        <v>4520</v>
+      </c>
+      <c r="V19" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="7">
+        <v>16384</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="4">
+        <v>3</v>
+      </c>
+      <c r="N20" s="4">
+        <v>30</v>
+      </c>
+      <c r="O20" s="4">
+        <v>3626</v>
+      </c>
+      <c r="P20" s="4">
+        <v>30.217083333333299</v>
+      </c>
+      <c r="S20" s="4">
+        <v>27.3336913160325</v>
+      </c>
+      <c r="T20" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="U20" s="4">
+        <v>3444</v>
+      </c>
+      <c r="V20" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="17">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="L21" s="4">
+        <v>3</v>
+      </c>
+      <c r="N21" s="4">
+        <v>34</v>
+      </c>
+      <c r="O21" s="4">
+        <v>4891</v>
+      </c>
+      <c r="P21" s="4">
+        <v>40.758700980392099</v>
+      </c>
+      <c r="S21" s="4">
+        <v>27.840187376725801</v>
+      </c>
+      <c r="T21" s="4">
+        <v>3.5999999999999899</v>
+      </c>
+      <c r="U21" s="4">
+        <v>4343</v>
+      </c>
+      <c r="V21" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4096</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" s="4">
+        <v>3</v>
+      </c>
+      <c r="N22" s="4">
+        <v>34</v>
+      </c>
+      <c r="O22" s="4">
+        <v>5754</v>
+      </c>
+      <c r="P22" s="4">
+        <v>47.950367647058798</v>
+      </c>
+      <c r="S22" s="4">
+        <v>28.7694052495827</v>
+      </c>
+      <c r="T22" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U22" s="4">
+        <v>2244</v>
+      </c>
+      <c r="V22" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="17">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="L23" s="4">
+        <v>3</v>
+      </c>
+      <c r="N23" s="4">
+        <v>35</v>
+      </c>
+      <c r="O23" s="4">
+        <v>7664</v>
+      </c>
+      <c r="P23" s="4">
+        <v>63.867023809523801</v>
+      </c>
+      <c r="S23" s="4">
+        <v>29.637575480018899</v>
+      </c>
+      <c r="T23" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="U23" s="4">
+        <v>3023</v>
+      </c>
+      <c r="V23" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="15" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="7">
+        <v>4096</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" s="4">
+        <v>3</v>
+      </c>
+      <c r="N24" s="4">
+        <v>33</v>
+      </c>
+      <c r="O24" s="4">
+        <v>7748</v>
+      </c>
+      <c r="P24" s="4">
+        <v>64.567045454545394</v>
+      </c>
+      <c r="S24" s="4">
+        <v>32.089658555729898</v>
+      </c>
+      <c r="T24" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="U24" s="4">
+        <v>5391</v>
+      </c>
+      <c r="V24" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="17">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="L25" s="4">
+        <v>3</v>
+      </c>
+      <c r="N25" s="4">
+        <v>33</v>
+      </c>
+      <c r="O25" s="4">
+        <v>7868</v>
+      </c>
+      <c r="P25" s="4">
+        <v>65.567045454545394</v>
+      </c>
+      <c r="S25" s="4">
+        <v>34.033723958333297</v>
+      </c>
+      <c r="T25" s="4">
+        <v>3</v>
+      </c>
+      <c r="U25" s="4">
+        <v>4084</v>
+      </c>
+      <c r="V25" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15" customHeight="1">
+      <c r="A26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="7">
+        <v>65536</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L26" s="4">
+        <v>3</v>
+      </c>
+      <c r="N26" s="4">
+        <v>38</v>
+      </c>
+      <c r="O26" s="4">
+        <v>7968</v>
+      </c>
+      <c r="P26" s="4">
+        <v>66.400328947368394</v>
+      </c>
+      <c r="S26" s="4">
+        <v>34.528065843621398</v>
+      </c>
+      <c r="T26" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="U26" s="4">
+        <v>3729</v>
+      </c>
+      <c r="V26" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="17">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="L27" s="4">
+        <v>4</v>
+      </c>
+      <c r="N27" s="4">
+        <v>33</v>
+      </c>
+      <c r="O27" s="4">
+        <v>2728</v>
+      </c>
+      <c r="P27" s="4">
+        <v>15.1560044893378</v>
+      </c>
+      <c r="S27" s="4">
+        <v>38.480411764705799</v>
+      </c>
+      <c r="T27" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="U27" s="4">
+        <v>5772</v>
+      </c>
+      <c r="V27" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15" customHeight="1">
+      <c r="A28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="7">
+        <v>16384</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L28" s="4">
+        <v>4</v>
+      </c>
+      <c r="N28" s="4">
+        <v>36</v>
+      </c>
+      <c r="O28" s="4">
+        <v>2911</v>
+      </c>
+      <c r="P28" s="4">
+        <v>16.172633744855901</v>
+      </c>
+      <c r="S28" s="4">
+        <v>38.865495086923602</v>
+      </c>
+      <c r="T28" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="U28" s="4">
+        <v>4897</v>
+      </c>
+      <c r="V28" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="17">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="L29" s="4">
+        <v>4</v>
+      </c>
+      <c r="N29" s="4">
+        <v>30</v>
+      </c>
+      <c r="O29" s="4">
+        <v>3491</v>
+      </c>
+      <c r="P29" s="4">
+        <v>19.3949382716049</v>
+      </c>
+      <c r="S29" s="4">
+        <v>39.422991889063297</v>
+      </c>
+      <c r="T29" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="U29" s="4">
+        <v>6623</v>
+      </c>
+      <c r="V29" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="17">
+      <c r="L30" s="4">
+        <v>4</v>
+      </c>
+      <c r="N30" s="4">
+        <v>37</v>
+      </c>
+      <c r="O30" s="4">
+        <v>4209</v>
+      </c>
+      <c r="P30" s="4">
+        <v>23.383733733733699</v>
+      </c>
+      <c r="S30" s="4">
+        <v>39.792125771604901</v>
+      </c>
+      <c r="T30" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="U30" s="4">
+        <v>5730</v>
+      </c>
+      <c r="V30" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="17">
+      <c r="L31" s="4">
+        <v>4</v>
+      </c>
+      <c r="N31" s="4">
+        <v>34</v>
+      </c>
+      <c r="O31" s="4">
+        <v>4472</v>
+      </c>
+      <c r="P31" s="4">
+        <v>24.844880174291902</v>
+      </c>
+      <c r="S31" s="4">
+        <v>43.436341222879598</v>
+      </c>
+      <c r="T31" s="4">
+        <v>3.5999999999999899</v>
+      </c>
+      <c r="U31" s="4">
+        <v>6776</v>
+      </c>
+      <c r="V31" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="17">
+      <c r="A32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L32" s="4">
+        <v>4</v>
+      </c>
+      <c r="N32" s="4">
+        <v>30</v>
+      </c>
+      <c r="O32" s="4">
+        <v>4580</v>
+      </c>
+      <c r="P32" s="4">
+        <v>25.444938271604901</v>
+      </c>
+      <c r="S32" s="4">
+        <v>43.924028479236803</v>
+      </c>
+      <c r="T32" s="4">
+        <v>3.3999999999999901</v>
+      </c>
+      <c r="U32" s="4">
+        <v>6325</v>
+      </c>
+      <c r="V32" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="17">
+      <c r="A33" s="4">
+        <v>11.6666666666666</v>
+      </c>
+      <c r="L33" s="4">
+        <v>4</v>
+      </c>
+      <c r="N33" s="4">
+        <v>40</v>
+      </c>
+      <c r="O33" s="4">
+        <v>4883</v>
+      </c>
+      <c r="P33" s="4">
+        <v>27.128148148148099</v>
+      </c>
+      <c r="S33" s="4">
+        <v>44.530396338754102</v>
+      </c>
+      <c r="T33" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="U33" s="4">
+        <v>2939</v>
+      </c>
+      <c r="V33" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="17">
+      <c r="A34" s="4">
+        <v>15</v>
+      </c>
+      <c r="L34" s="4">
+        <v>4</v>
+      </c>
+      <c r="N34" s="4">
+        <v>35</v>
+      </c>
+      <c r="O34" s="4">
+        <v>4961</v>
+      </c>
+      <c r="P34" s="4">
+        <v>27.561534391534298</v>
+      </c>
+      <c r="S34" s="4">
+        <v>45.491028806584303</v>
+      </c>
+      <c r="T34" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="U34" s="4">
+        <v>4913</v>
+      </c>
+      <c r="V34" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="17">
+      <c r="A35" s="4">
+        <v>17</v>
+      </c>
+      <c r="L35" s="4">
+        <v>4</v>
+      </c>
+      <c r="N35" s="4">
+        <v>36</v>
+      </c>
+      <c r="O35" s="4">
+        <v>4982</v>
+      </c>
+      <c r="P35" s="4">
+        <v>27.6781893004115</v>
+      </c>
+      <c r="S35" s="4">
+        <v>49.525820097581203</v>
+      </c>
+      <c r="T35" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U35" s="4">
+        <v>3863</v>
+      </c>
+      <c r="V35" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="17">
+      <c r="A36" s="4">
+        <v>8.25</v>
+      </c>
+      <c r="L36" s="4">
+        <v>4</v>
+      </c>
+      <c r="N36" s="4">
+        <v>39</v>
+      </c>
+      <c r="O36" s="4">
+        <v>5303</v>
+      </c>
+      <c r="P36" s="4">
+        <v>29.461490978157599</v>
+      </c>
+      <c r="S36" s="4">
+        <v>52.0253205128205</v>
+      </c>
+      <c r="T36" s="4">
+        <v>3</v>
+      </c>
+      <c r="U36" s="4">
+        <v>6243</v>
+      </c>
+      <c r="V36" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="17">
+      <c r="A37" s="4">
+        <v>9</v>
+      </c>
+      <c r="L37" s="4">
+        <v>4</v>
+      </c>
+      <c r="N37" s="4">
+        <v>30</v>
+      </c>
+      <c r="O37" s="4">
+        <v>6253</v>
+      </c>
+      <c r="P37" s="4">
+        <v>34.739382716049299</v>
+      </c>
+      <c r="S37" s="4">
+        <v>55.765592286501303</v>
+      </c>
+      <c r="T37" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="U37" s="4">
+        <v>7361</v>
+      </c>
+      <c r="V37" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="17">
+      <c r="A38" s="4">
+        <v>12</v>
+      </c>
+      <c r="L38" s="4">
+        <v>4</v>
+      </c>
+      <c r="N38" s="4">
+        <v>35</v>
+      </c>
+      <c r="O38" s="4">
+        <v>6938</v>
+      </c>
+      <c r="P38" s="4">
+        <v>38.5448677248677</v>
+      </c>
+      <c r="S38" s="4">
+        <v>57.121612822439197</v>
+      </c>
+      <c r="T38" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="U38" s="4">
+        <v>7540</v>
+      </c>
+      <c r="V38" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="17">
+      <c r="A39" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="L39" s="4">
+        <v>4</v>
+      </c>
+      <c r="N39" s="4">
+        <v>36</v>
+      </c>
+      <c r="O39" s="4">
+        <v>6972</v>
+      </c>
+      <c r="P39" s="4">
+        <v>38.733744855966997</v>
+      </c>
+      <c r="S39" s="4">
+        <v>57.166997112235201</v>
+      </c>
+      <c r="T39" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="U39" s="4">
+        <v>7203</v>
+      </c>
+      <c r="V39" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="17">
+      <c r="A40" s="4">
+        <v>13</v>
+      </c>
+      <c r="L40" s="4">
+        <v>4</v>
+      </c>
+      <c r="N40" s="4">
+        <v>34</v>
+      </c>
+      <c r="O40" s="4">
+        <v>7231</v>
+      </c>
+      <c r="P40" s="4">
+        <v>40.172657952069699</v>
+      </c>
+      <c r="S40" s="4">
+        <v>57.217813681474397</v>
+      </c>
+      <c r="T40" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="U40" s="4">
+        <v>7896</v>
+      </c>
+      <c r="V40" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="17">
+      <c r="A41" s="4">
+        <v>11</v>
+      </c>
+      <c r="L41" s="4">
+        <v>4</v>
+      </c>
+      <c r="N41" s="4">
+        <v>36</v>
+      </c>
+      <c r="O41" s="4">
+        <v>7267</v>
+      </c>
+      <c r="P41" s="4">
+        <v>40.372633744855897</v>
+      </c>
+      <c r="S41" s="4">
+        <v>58.367057291666598</v>
+      </c>
+      <c r="T41" s="4">
+        <v>3</v>
+      </c>
+      <c r="U41" s="4">
+        <v>7004</v>
+      </c>
+      <c r="V41" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="17">
+      <c r="A42" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="L42" s="4">
+        <v>4</v>
+      </c>
+      <c r="N42" s="4">
+        <v>36</v>
+      </c>
+      <c r="O42" s="4">
+        <v>7404</v>
+      </c>
+      <c r="P42" s="4">
+        <v>41.133744855967002</v>
+      </c>
+      <c r="S42" s="4">
+        <v>60.212203856749298</v>
+      </c>
+      <c r="T42" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="U42" s="4">
+        <v>3974</v>
+      </c>
+      <c r="V42" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="17">
+      <c r="A43" s="4">
+        <v>13</v>
+      </c>
+      <c r="L43" s="4">
+        <v>4</v>
+      </c>
+      <c r="N43" s="4">
+        <v>33</v>
+      </c>
+      <c r="O43" s="4">
+        <v>7967</v>
+      </c>
+      <c r="P43" s="4">
+        <v>44.261560044893301</v>
+      </c>
+      <c r="S43" s="4">
+        <v>62.991043967944499</v>
+      </c>
+      <c r="T43" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="U43" s="4">
+        <v>6803</v>
+      </c>
+      <c r="V43" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="17">
+      <c r="A44" s="4">
+        <v>10</v>
+      </c>
+      <c r="S44" s="4">
+        <v>63.315126237348402</v>
+      </c>
+      <c r="T44" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="U44" s="4">
+        <v>6838</v>
+      </c>
+      <c r="V44" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="17">
+      <c r="A45" s="4">
+        <v>9.25</v>
+      </c>
+      <c r="S45" s="4">
+        <v>74.904317111459903</v>
+      </c>
+      <c r="T45" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="U45" s="4">
+        <v>3146</v>
+      </c>
+      <c r="V45" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="17">
+      <c r="A46" s="4">
+        <v>18</v>
+      </c>
+      <c r="S46" s="4">
+        <v>78.000219507539597</v>
+      </c>
+      <c r="T46" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U46" s="4">
+        <v>6084</v>
+      </c>
+      <c r="V46" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="17">
+      <c r="A47" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="S47" s="4">
+        <v>81.089949793795896</v>
+      </c>
+      <c r="T47" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U47" s="4">
+        <v>6325</v>
+      </c>
+      <c r="V47" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="17">
+      <c r="A48" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="S48" s="4">
+        <v>92.9</v>
+      </c>
+      <c r="T48" s="4">
+        <v>2</v>
+      </c>
+      <c r="U48" s="4">
+        <v>5574</v>
+      </c>
+      <c r="V48" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="17">
+      <c r="A49" s="4">
+        <v>20</v>
+      </c>
+      <c r="S49" s="4">
+        <v>93.064315212031502</v>
+      </c>
+      <c r="T49" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U49" s="4">
+        <v>7259</v>
+      </c>
+      <c r="V49" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="17">
+      <c r="A50" s="4">
+        <v>10</v>
+      </c>
+      <c r="S50" s="4">
+        <v>95.430719832735903</v>
+      </c>
+      <c r="T50" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U50" s="4">
+        <v>6871</v>
+      </c>
+      <c r="V50" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="17">
+      <c r="A51" s="4">
+        <v>11.3333333333333</v>
+      </c>
+      <c r="S51" s="4">
+        <v>105.018403534253</v>
+      </c>
+      <c r="T51" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="U51" s="4">
+        <v>5671</v>
+      </c>
+      <c r="V51" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="17">
+      <c r="A52" s="4">
+        <v>8.75</v>
+      </c>
+      <c r="S52" s="4">
+        <v>107.90423623995</v>
+      </c>
+      <c r="T52" s="4">
+        <v>1.69999999999999</v>
+      </c>
+      <c r="U52" s="4">
+        <v>4532</v>
+      </c>
+      <c r="V52" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="17">
+      <c r="A53" s="4">
+        <v>9</v>
+      </c>
+      <c r="S53" s="4">
+        <v>136.26499999999999</v>
+      </c>
+      <c r="T53" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="U53" s="4">
+        <v>4088</v>
+      </c>
+      <c r="V53" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="17">
+      <c r="A54" s="4">
+        <v>9.75</v>
+      </c>
+      <c r="S54" s="4">
+        <v>146.07085034013599</v>
+      </c>
+      <c r="T54" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="U54" s="4">
+        <v>6135</v>
+      </c>
+      <c r="V54" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="17">
+      <c r="A55" s="4">
+        <v>11.3333333333333</v>
+      </c>
+      <c r="S55" s="4">
+        <v>1000.28333333333</v>
+      </c>
+      <c r="T55" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U55" s="4">
+        <v>6002</v>
+      </c>
+      <c r="V55" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="17">
+      <c r="A56" s="4">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="17">
+      <c r="A57" s="4">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="17">
+      <c r="A58" s="4">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="17">
+      <c r="A59" s="4">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="17">
+      <c r="A60" s="4">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="17">
+      <c r="A61" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="17">
+      <c r="A62" s="4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="17">
+      <c r="A63" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="17">
+      <c r="A64" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="17">
+      <c r="A65" s="4">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="17">
+      <c r="A66" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="17">
+      <c r="A67" s="4">
+        <v>11.6666666666666</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="17">
+      <c r="A68" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="17">
+      <c r="A69" s="4">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="17">
+      <c r="A70" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="17">
+      <c r="A71" s="4">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="17">
+      <c r="A72" s="4">
+        <v>12.6666666666666</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2">
+        <f>A2/B2</f>
+        <v>4.545454545454545</v>
+      </c>
+      <c r="D2">
+        <f>A2 - C2</f>
+        <v>0.45454545454545503</v>
+      </c>
+      <c r="E2">
+        <v>512</v>
+      </c>
+      <c r="F2">
+        <f>E2/D2</f>
+        <v>1126.3999999999987</v>
+      </c>
+      <c r="G2">
+        <f>F2/60</f>
+        <v>18.773333333333312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C57" si="0">A3/B3</f>
+        <v>4.545454545454545</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D57" si="1">A3 - C3</f>
+        <v>0.45454545454545503</v>
+      </c>
+      <c r="E3">
+        <v>1024</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F57" si="2">E3/D3</f>
+        <v>2252.7999999999975</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G57" si="3">F3/60</f>
+        <v>37.546666666666624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>4.545454545454545</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.45454545454545503</v>
+      </c>
+      <c r="E4">
+        <v>2048</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>4505.5999999999949</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>75.093333333333248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>4.545454545454545</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.45454545454545503</v>
+      </c>
+      <c r="E5">
+        <v>4096</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>9011.1999999999898</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>150.1866666666665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>4.545454545454545</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.45454545454545503</v>
+      </c>
+      <c r="E6">
+        <v>8192</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>18022.39999999998</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>300.37333333333299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>4.545454545454545</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.45454545454545503</v>
+      </c>
+      <c r="E7">
+        <v>16384</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>36044.799999999959</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>600.74666666666599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1.25</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>512</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>512</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>8.5333333333333332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1.25</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1024</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>1024</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>17.066666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1.25</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2048</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>2048</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>34.133333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>1.25</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>4096</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>4096</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>68.266666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1.25</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>8192</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>8192</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>136.53333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>1.25</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>16384</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>16384</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>273.06666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>1.5</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="E14" s="1">
+        <v>512</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>307.20000000000005</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>5.120000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>1.5</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1024</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>614.40000000000009</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>10.240000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>1.5</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>1228.8000000000002</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>20.480000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>1.5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4096</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>2457.6000000000004</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>40.960000000000008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>1.5</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8192</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>4915.2000000000007</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>81.920000000000016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>1.5</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="E19" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>9830.4000000000015</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>163.84000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>1.75</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="E20" s="1">
+        <v>512</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>238.93333333333334</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>3.9822222222222221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>1.75</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1024</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>477.86666666666667</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>7.9644444444444442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>1.75</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>955.73333333333335</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>15.928888888888888</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>1.75</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4096</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>1911.4666666666667</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>31.857777777777777</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>1.75</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="E24" s="1">
+        <v>8192</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>3822.9333333333334</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>63.715555555555554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>1.75</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="E25" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>7645.8666666666668</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>127.43111111111111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>512</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>204.8</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>3.4133333333333336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1024</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>409.6</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>6.8266666666666671</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>819.2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>13.653333333333334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4096</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>1638.4</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>27.306666666666668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>8192</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>3276.8</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>54.613333333333337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>6553.6</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>109.22666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="C32" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>4.545454545454545</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>0.45454545454545503</v>
+      </c>
+      <c r="E33" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>36044.799999999959</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>600.74666666666599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090899</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>0.90909090909091006</v>
+      </c>
+      <c r="E34" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>18022.39999999998</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>300.37333333333299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>13.636363636363635</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>1.3636363636363651</v>
+      </c>
+      <c r="E35" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>12014.93333333332</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>200.24888888888867</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>18.18181818181818</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>1.8181818181818201</v>
+      </c>
+      <c r="E36" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>9011.1999999999898</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>150.1866666666665</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>25</v>
+      </c>
+      <c r="B37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>22.727272727272727</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>2.2727272727272734</v>
+      </c>
+      <c r="E37" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>7208.9599999999982</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>120.1493333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>1.25</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>16384</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>273.06666666666666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>1.25</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>8192</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>136.53333333333333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>1.25</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E40" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>5461.333333333333</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>91.022222222222211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>1.25</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E41" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>4096</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>68.266666666666666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>25</v>
+      </c>
+      <c r="B42">
+        <v>1.25</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>3276.8</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>54.613333333333337</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>1.5</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="E43" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>9830.4000000000015</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>163.84000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>1.5</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="E44" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>4915.2000000000007</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="3"/>
+        <v>81.920000000000016</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>1.5</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E45" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>3276.8</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>54.613333333333337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>1.5</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="E46" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>2457.6000000000004</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="3"/>
+        <v>40.960000000000008</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>1.5</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="E47" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>1966.0800000000004</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>32.768000000000008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>1.75</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="E48" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>7645.8666666666668</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="3"/>
+        <v>127.43111111111111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>1.75</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>5.7142857142857144</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="E49" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>3822.9333333333334</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="3"/>
+        <v>63.715555555555554</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>15</v>
+      </c>
+      <c r="B50">
+        <v>1.75</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>6.4285714285714288</v>
+      </c>
+      <c r="E50" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>2548.6222222222223</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="3"/>
+        <v>42.477037037037036</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>20</v>
+      </c>
+      <c r="B51">
+        <v>1.75</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>11.428571428571429</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="E51" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>1911.4666666666667</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="3"/>
+        <v>31.857777777777777</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>25</v>
+      </c>
+      <c r="B52">
+        <v>1.75</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>10.714285714285714</v>
+      </c>
+      <c r="E52" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>1529.1733333333334</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="3"/>
+        <v>25.486222222222224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="E53" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>6553.6</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="3"/>
+        <v>109.22666666666667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>10</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E54" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>3276.8</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="3"/>
+        <v>54.613333333333337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>15</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="E55" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>2184.5333333333333</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="3"/>
+        <v>36.408888888888889</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>20</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E56" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>1638.4</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="3"/>
+        <v>27.306666666666668</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>25</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="E57" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>1310.72</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="3"/>
+        <v>21.845333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
